--- a/invoice_gen/TEMPLATE/KB.xlsx
+++ b/invoice_gen/TEMPLATE/KB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr date1904="1" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\tools\inv_pkl_contract_creation - Copy\invoice_gen\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\project\generated_shippinglist_invoice\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E5643C-BE22-4A76-A8D9-396CAF811B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD98790-4D93-437E-814B-6B623167D9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,12 +152,6 @@
     <t>Key Bay Furniture Co.,Ltd.</t>
   </si>
   <si>
-    <t>CONTACT: Mr. Khang TEL: 0865215784</t>
-  </si>
-  <si>
-    <t>EMAIL: trongkhang5138@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHIP: </t>
   </si>
   <si>
@@ -194,32 +188,37 @@
                                           /BANK OF CHINA PHNOM PENH BRANCH</t>
   </si>
   <si>
+    <t>Binh Chanh Quarter, Tan Hiep Ward, Ho Chi Minh City, Vietnam</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh City, Vietnam.</t>
+  </si>
+  <si>
+    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO HO CHI MINH CITY, VIETNAM.</t>
+  </si>
+  <si>
+    <t>JFINV</t>
+  </si>
+  <si>
+    <t>JFTIME</t>
+  </si>
+  <si>
+    <t>JFREF</t>
+  </si>
+  <si>
+    <t>CONTACT: Mr. Khang TEL: +84 865215784</t>
+  </si>
+  <si>
+    <t>EMAIL: TRONGKHANG5138@GMAIL.COM</t>
+  </si>
+  <si>
     <t>TRADE REGISTER NUMBER:3702213621
 Key Bay Furniture Co., Ltd
-Binh Chanh Quarter, Tan Hiep Ward, Ho Chi Minh City, Vietnam
-CONTACT: Mr. Khang TEL: 0865215784   EMAIL:
-trongkhang5138@gmail.com</t>
-  </si>
-  <si>
-    <t>Binh Chanh Quarter, Tan Hiep Ward, Ho Chi Minh City, Vietnam</t>
-  </si>
-  <si>
-    <t>HCM</t>
-  </si>
-  <si>
-    <t>Ho Chi Minh City, Vietnam.</t>
-  </si>
-  <si>
-    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO HO CHI MINH CITY, VIETNAM.</t>
-  </si>
-  <si>
-    <t>JFINV</t>
-  </si>
-  <si>
-    <t>JFTIME</t>
-  </si>
-  <si>
-    <t>JFREF</t>
+Binh Chanh Quarter, Tan Hiep Ward, Ho Chi Minh City, Vietnam 
+CONTACT: Mr. Khang TEL: +84 865215784   EMAIL: TRONGKHANG5138@GMAIL.COM</t>
   </si>
 </sst>
 </file>
@@ -230,7 +229,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00;[$USD]\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -319,12 +318,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Book Antiqua"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -691,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,19 +732,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -763,7 +753,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -777,121 +767,134 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -900,19 +903,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,331 +1218,331 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:J10"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="9.5703125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="18" style="35" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="4" width="9.5703125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="1.85546875" style="34" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="34" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="18" style="34" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="34" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="71" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="72"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="73" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="74"/>
-    </row>
-    <row r="3" spans="1:10" s="34" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="65"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="76" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="1:10" s="33" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A5" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A6" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="1:10" s="33" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A7" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A8" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="34" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A6" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="68"/>
-    </row>
-    <row r="7" spans="1:10" s="34" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="65"/>
-    </row>
-    <row r="8" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A8" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69" t="str">
+      <c r="B8" s="57"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="68" t="str">
         <f>[1]INV!D8</f>
         <v>T/T</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="68"/>
-    </row>
-    <row r="9" spans="1:10" s="34" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" spans="1:10" s="33" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="65"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="1:10" ht="23.1" customHeight="1">
       <c r="A10" s="67" t="str">
         <f>D6</f>
         <v>JFTIME</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69" t="s">
+      <c r="E10" s="57"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="68"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="38"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="42"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="42"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:10" ht="14.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="42"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" ht="14.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="42"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" ht="14.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="42"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" ht="14.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="42"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="14.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="42"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" ht="14.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="46"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="45"/>
     </row>
     <row r="22" spans="1:10" ht="14.25"/>
     <row r="23" spans="1:10" ht="14.25"/>
@@ -1722,17 +1712,6 @@
     <row r="187" ht="14.25"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:J6"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="A1:F2"/>
@@ -1749,6 +1728,17 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -1760,8 +1750,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1782,70 +1772,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="83.25" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
@@ -1857,11 +1847,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1874,7 +1864,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1">
@@ -1888,8 +1878,8 @@
       <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>54</v>
+      <c r="G9" s="29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1">
@@ -1934,11 +1924,11 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="32"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -1952,7 +1942,7 @@
     <row r="15" spans="1:7" ht="25.5" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1962,7 +1952,7 @@
     <row r="16" spans="1:7" ht="25.5" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="15" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1971,8 +1961,8 @@
     </row>
     <row r="17" spans="1:7" ht="25.5" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="19" t="s">
-        <v>36</v>
+      <c r="B17" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1980,11 +1970,11 @@
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>37</v>
+      <c r="A18" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1992,7 +1982,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2000,7 +1990,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2008,61 +1998,61 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1">
-      <c r="A21" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A24" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+    </row>
+    <row r="25" spans="1:7" ht="27" customHeight="1">
+      <c r="A25" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A24" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="79"/>
-    </row>
-    <row r="25" spans="1:7" ht="27" customHeight="1">
-      <c r="A25" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
     </row>
     <row r="26" spans="1:7" ht="27.75" customHeight="1">
       <c r="E26" s="9"/>
@@ -2073,8 +2063,8 @@
     </row>
     <row r="27" spans="1:7" ht="27.75" customHeight="1">
       <c r="E27" s="4"/>
-      <c r="F27" s="27" t="s">
-        <v>44</v>
+      <c r="F27" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="24.75" customHeight="1">
@@ -2084,13 +2074,13 @@
     <row r="29" spans="1:7" ht="21" customHeight="1">
       <c r="E29" s="4"/>
       <c r="F29" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="21" customHeight="1">
       <c r="E30" s="4"/>
-      <c r="F30" s="33" t="s">
-        <v>45</v>
+      <c r="F30" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="G30" s="5"/>
     </row>
@@ -2110,17 +2100,17 @@
     <row r="55" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J21:J27">
     <cfRule type="duplicateValues" priority="5" stopIfTrue="1"/>
@@ -2138,7 +2128,7 @@
   <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -2164,94 +2154,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="54" customHeight="1">
-      <c r="A6" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="A6" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
@@ -2265,7 +2255,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1">
@@ -2281,7 +2271,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1">
@@ -2296,8 +2286,8 @@
       <c r="H9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>54</v>
+      <c r="I9" s="29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
@@ -2313,7 +2303,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J10" s="9"/>
     </row>
@@ -2361,7 +2351,7 @@
     <row r="14" spans="1:11" ht="25.5" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -2373,7 +2363,7 @@
     <row r="15" spans="1:11" ht="25.5" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="15" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -2384,8 +2374,8 @@
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="19" t="s">
-        <v>36</v>
+      <c r="B16" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -2395,11 +2385,11 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>37</v>
+      <c r="A17" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2409,7 +2399,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2419,7 +2409,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2429,13 +2419,13 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="48" customHeight="1">
-      <c r="A20" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21"/>
+      <c r="A20" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2445,17 +2435,17 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="59.1" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4"/>
@@ -2463,50 +2453,50 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="48" customHeight="1">
-      <c r="A22" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="A22" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="48" customHeight="1">
-      <c r="A23" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
+      <c r="A23" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
     </row>
     <row r="24" spans="1:12" ht="48" customHeight="1">
-      <c r="A24" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
+      <c r="A24" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
     </row>
     <row r="25" spans="1:12" ht="21" customHeight="1">
       <c r="F25" s="4"/>
@@ -2519,7 +2509,7 @@
     <row r="26" spans="1:12" ht="25.5" customHeight="1">
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="27"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:12" ht="21" customHeight="1">
       <c r="F27" s="4"/>
@@ -2530,7 +2520,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="21" customHeight="1">
@@ -2545,16 +2535,11 @@
     <row r="32" spans="1:12" ht="17.25" customHeight="1"/>
     <row r="44" ht="15" customHeight="1"/>
     <row r="182" spans="1:2" ht="42" customHeight="1">
-      <c r="A182" s="78"/>
-      <c r="B182" s="78"/>
+      <c r="A182" s="77"/>
+      <c r="B182" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A182:B182"/>
@@ -2562,6 +2547,11 @@
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
